--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7030.132132806852</v>
+        <v>4448.082739086214</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>45.17382751764772</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>49.28689632057531</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885203</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>296.1212471796171</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>199.7354794673605</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>90.63804115383903</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.6466334274995</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.44268962585681</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.10682311458598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>121.5009708610295</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.9149342691351</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1190,13 +1190,13 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>12.77140201940871</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>154.6639681878177</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.21980716569998</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>94.30373791808368</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012035</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,13 +1664,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465707</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.79417418837853</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>110.144409574803</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>139.5271979141359</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>2.44572777409376</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>107.3363007608859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>108.0660982347012</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.78331078915251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.8327676896534</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>89.43475015428525</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>72.26558381699965</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>188.7692896015406</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.36981422367011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>14.53306611597334</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.9604756260736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.0282707185993</v>
+        <v>1279.054603647808</v>
       </c>
       <c r="C2" t="n">
-        <v>966.0282707185993</v>
+        <v>1279.054603647808</v>
       </c>
       <c r="D2" t="n">
-        <v>607.7625721118488</v>
+        <v>920.7889050410574</v>
       </c>
       <c r="E2" t="n">
-        <v>607.7625721118488</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="F2" t="n">
-        <v>196.7766673222413</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>196.7766673222413</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640844</v>
@@ -4334,22 +4334,22 @@
         <v>608.5986938974692</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156594</v>
+        <v>1249.621903517363</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.29204167326</v>
+        <v>1667.723068306144</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908844</v>
+        <v>1973.198174541727</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.790357528737</v>
+        <v>2248.31439385836</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2448.618721147462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>2336.351904522573</v>
       </c>
       <c r="V2" t="n">
-        <v>2078.862524313915</v>
+        <v>2005.289017179002</v>
       </c>
       <c r="W2" t="n">
-        <v>1726.093869043801</v>
+        <v>1652.520361908888</v>
       </c>
       <c r="X2" t="n">
-        <v>1352.628110782721</v>
+        <v>1279.054603647808</v>
       </c>
       <c r="Y2" t="n">
-        <v>1352.628110782721</v>
+        <v>1279.054603647808</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4413,13 @@
         <v>460.3590590626809</v>
       </c>
       <c r="L3" t="n">
-        <v>871.9454821673569</v>
+        <v>1037.081874165935</v>
       </c>
       <c r="M3" t="n">
-        <v>1512.968691787251</v>
+        <v>1301.021405661421</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220582</v>
+        <v>1586.355276094753</v>
       </c>
       <c r="O3" t="n">
         <v>2037.107513972039</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>1109.449299798127</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="T4" t="n">
-        <v>885.0381405735652</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="U4" t="n">
-        <v>595.9015135656672</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="V4" t="n">
-        <v>341.2170253597803</v>
+        <v>938.8577604966753</v>
       </c>
       <c r="W4" t="n">
-        <v>51.79985532281972</v>
+        <v>938.8577604966753</v>
       </c>
       <c r="X4" t="n">
-        <v>51.79985532281972</v>
+        <v>938.8577604966753</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.002499984749</v>
+        <v>1813.253594101053</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.039983044337</v>
+        <v>1444.291077160641</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.039983044337</v>
+        <v>1086.025378553891</v>
       </c>
       <c r="E5" t="n">
-        <v>778.251730446093</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2658256564855</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.107338675987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>1552.641580414907</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="Y5" t="n">
-        <v>1533.002499984749</v>
+        <v>2199.853434165174</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>942.9699568457228</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1309.275846338048</v>
+        <v>1139.219060081369</v>
       </c>
       <c r="N6" t="n">
-        <v>1699.685407663791</v>
+        <v>1529.628621407111</v>
       </c>
       <c r="O6" t="n">
-        <v>2034.614088379322</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2284.09081624434</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.5002132301805</v>
+        <v>602.2656565356622</v>
       </c>
       <c r="C7" t="n">
-        <v>350.5640303022736</v>
+        <v>602.2656565356622</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4473908899379</v>
+        <v>452.1490171233264</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>304.2359235409333</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="U7" t="n">
-        <v>836.360290469252</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="V7" t="n">
-        <v>836.360290469252</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="W7" t="n">
-        <v>836.360290469252</v>
+        <v>1134.631925658899</v>
       </c>
       <c r="X7" t="n">
-        <v>836.360290469252</v>
+        <v>906.6423747608812</v>
       </c>
       <c r="Y7" t="n">
-        <v>615.5677113257219</v>
+        <v>783.9141213659019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>456.1750464297314</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="C8" t="n">
-        <v>456.1750464297314</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1750464297314</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,19 +4805,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>1796.70529119849</v>
+        <v>1990.690591881594</v>
       </c>
       <c r="W8" t="n">
-        <v>1443.936635928376</v>
+        <v>1637.92193661148</v>
       </c>
       <c r="X8" t="n">
-        <v>1070.470877667296</v>
+        <v>1637.92193661148</v>
       </c>
       <c r="Y8" t="n">
-        <v>680.3315456914841</v>
+        <v>1247.782604635669</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1617.794731802665</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2255.657696694298</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>476.3987983832656</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
-        <v>307.4626154553587</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>157.3459760430229</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>157.3459760430229</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>157.3459760430229</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.294864927271</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>804.6103767213839</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>804.6103767213839</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="X10" t="n">
-        <v>576.6208258233665</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>476.3987983832656</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.15589967238</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958753</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679684</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556326</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732395</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>189.0729639753291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.46108051051</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304623</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369645</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.577292226115</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5276,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684978</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761972</v>
+        <v>874.8686257536395</v>
       </c>
       <c r="C16" t="n">
-        <v>781.2503708482903</v>
+        <v>705.9324428257327</v>
       </c>
       <c r="D16" t="n">
-        <v>631.1337314359546</v>
+        <v>555.8158034133969</v>
       </c>
       <c r="E16" t="n">
-        <v>483.2206378535615</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3306903556511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2268.660400464175</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.058935487116</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1759.983708831314</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1505.299220625427</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1505.299220625427</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1277.309669727409</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>1056.517090583879</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856866</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>808.8888553856866</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>658.7722159733509</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
         <v>549.6145409888043</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>763.7541388327643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>613.6374994204285</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>465.7244058380354</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2313.467666357059</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7597,22 +7597,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7982,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037413</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>123.2632305365456</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.603020508345</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6571919233265</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>204.035908941259</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>214.0881678038684</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>49.3175245049448</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.7491560325416</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>245.467010437719</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.4694788103615</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>336.756542554614</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>31.63101129051782</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>69.96797973020877</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7120449039410346</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>71.22040037418516</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.72996410389031</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>70.88187642684156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>112.6104454096921</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>144.8013425629421</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>38.36786441186794</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.9992124922839</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>59.1807228639271</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>63.36835372228742</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.05123379926113</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>271.9899322206177</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>73.62417772602114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1095137.405266619</v>
+        <v>1095137.40526662</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1095137.405266619</v>
+        <v>1095137.40526662</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794694</v>
+        <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457135</v>
       </c>
-      <c r="D2" t="n">
-        <v>328416.7079457132</v>
-      </c>
       <c r="E2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="I2" t="n">
-        <v>322858.6398760025</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="P2" t="n">
         <v>322858.6398760025</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117230.9551024951</v>
+        <v>117230.9551024952</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695059</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695064</v>
       </c>
       <c r="K4" t="n">
+        <v>6287.480531695082</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.48053169508</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847665.2000954123</v>
+        <v>-847851.5934839513</v>
       </c>
       <c r="C6" t="n">
-        <v>-66895.49593093916</v>
+        <v>-66895.4959309393</v>
       </c>
       <c r="D6" t="n">
-        <v>105868.8638589557</v>
+        <v>105868.8638589558</v>
       </c>
       <c r="E6" t="n">
-        <v>-285440.2382253506</v>
+        <v>-285474.9761507861</v>
       </c>
       <c r="F6" t="n">
-        <v>215448.6295204004</v>
+        <v>215413.8915949646</v>
       </c>
       <c r="G6" t="n">
-        <v>215448.6295204004</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="H6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949646</v>
       </c>
       <c r="I6" t="n">
-        <v>215448.6295204001</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="J6" t="n">
-        <v>46034.61269435227</v>
+        <v>45999.87476891631</v>
       </c>
       <c r="K6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949647</v>
       </c>
       <c r="L6" t="n">
-        <v>215448.6295204002</v>
+        <v>215413.8915949646</v>
       </c>
       <c r="M6" t="n">
-        <v>84564.17261616509</v>
+        <v>84529.43469072942</v>
       </c>
       <c r="N6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="O6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="P6" t="n">
-        <v>215448.6295204002</v>
+        <v>215413.8915949646</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>259.3105491289361</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>316.2699589258448</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>127.9466121982558</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.2837366447623</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.7952490301968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.72515706735132</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>97.08368249106526</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.8189073943455</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>314.9808564507262</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>71.04568720121949</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.3648461863948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28384,13 +28384,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.5330199802459</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>251.8861049150245</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O33" t="n">
-        <v>537.6437863443696</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>152.0754244981388</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34702,25 +34702,25 @@
         <v>487.5747176873202</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>422.3244088775566</v>
       </c>
       <c r="N2" t="n">
         <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>402.9847952456514</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
         <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>415.7438617218949</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>455.3052907851383</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689357</v>
@@ -34942,7 +34942,7 @@
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755199</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>419.3234734870917</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>280.7788422623038</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>583.7788091402757</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>309.4991650401237</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.5512458942243</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>120.5443928316912</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O33" t="n">
-        <v>395.0475418999251</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.39592053417488</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
